--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1363970.88804687</v>
+        <v>1427374.110963021</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.31732496</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6401698.124259592</v>
+        <v>6769178.172114529</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>380.5877133914329</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,13 +670,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>118.8799551842798</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>95.71756552725243</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>60.29596688613749</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -899,22 +901,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>322.9639268876602</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>103.6682667757078</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>51.12198362547936</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>111.0504309449678</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1145,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>275.0492858449804</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.4753625005199</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>125.6544692828925</v>
       </c>
       <c r="U10" t="n">
-        <v>85.54283431715166</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,19 +1375,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>277.3726458049812</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>105.5504749248104</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1576,7 +1578,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>73.29899740799758</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.0382627044715</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314298</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800139</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>186.7535668023728</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>159.0706943503432</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>82.14201637551359</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>157.8824880649885</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2087,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2248,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>84.01976803536537</v>
       </c>
       <c r="T22" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2372,7 +2374,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2482,10 +2484,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>23.92593778768311</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2539,10 +2541,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.0131344328856</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2722,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>54.49360828358961</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998282</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2956,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>243.9266518127007</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>67.65667327773716</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3430,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>229.0094159404659</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>234.6314620976453</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3715,13 +3717,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>52.79556056590986</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>236.3534627278526</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>109.6411676790114</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.0567773522572</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,13 +3957,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>161.1551102058694</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3980,10 +3982,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>68.65919572177231</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633428</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>27.18442331492874</v>
+        <v>35.75633396116267</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4153,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>503.8064494671689</v>
+        <v>1072.077256853988</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>643.4955825912566</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>611.6262018061052</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>581.8918610048045</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>154.0244314140122</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>154.0244314140122</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.309253581271</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W2" t="n">
-        <v>949.4537989923044</v>
+        <v>1113.68420233872</v>
       </c>
       <c r="X2" t="n">
-        <v>934.3517396120192</v>
+        <v>1098.582142958435</v>
       </c>
       <c r="Y2" t="n">
-        <v>526.0656159116726</v>
+        <v>1094.336423298492</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>480.0602407069692</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0602407069692</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.9019468393491</v>
+        <v>727.4857355149354</v>
       </c>
       <c r="C4" t="n">
-        <v>464.9019468393491</v>
+        <v>554.9240239981604</v>
       </c>
       <c r="D4" t="n">
-        <v>464.9019468393491</v>
+        <v>389.0460311996831</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>219.2880274504203</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>219.2880274504203</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>219.2880274504203</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4492,46 +4494,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V4" t="n">
-        <v>1209.739776605537</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="W4" t="n">
-        <v>937.7133721918283</v>
+        <v>1146.724024919814</v>
       </c>
       <c r="X4" t="n">
-        <v>692.3216175252408</v>
+        <v>1146.724024919814</v>
       </c>
       <c r="Y4" t="n">
-        <v>464.9019468393491</v>
+        <v>919.3043542339226</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1668.990785889678</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.618961230547</v>
+        <v>1634.888717113505</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>1169.244591486649</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2333.252034672129</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2074.029731989146</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1711.412781922972</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1710.59773137441</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1695.495671994124</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1691.249952334182</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.0179953808982</v>
+        <v>871.4687364409342</v>
       </c>
       <c r="C7" t="n">
-        <v>286.0179953808982</v>
+        <v>698.9070249241591</v>
       </c>
       <c r="D7" t="n">
-        <v>286.0179953808982</v>
+        <v>533.0290321256819</v>
       </c>
       <c r="E7" t="n">
-        <v>286.0179953808982</v>
+        <v>481.3906648272178</v>
       </c>
       <c r="F7" t="n">
-        <v>286.0179953808982</v>
+        <v>304.6836107889741</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>684.507741074842</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1143.991608255755</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1586.2504114134</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.919660639181</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1808.125184926109</v>
       </c>
       <c r="W7" t="n">
-        <v>705.2562847857771</v>
+        <v>1536.098780512401</v>
       </c>
       <c r="X7" t="n">
-        <v>705.2562847857771</v>
+        <v>1290.707025845813</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.8366140998854</v>
+        <v>1063.287355159921</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>557.5168885550254</v>
+        <v>978.7890572316417</v>
       </c>
       <c r="C8" t="n">
-        <v>523.4148197788528</v>
+        <v>944.6869884554691</v>
       </c>
       <c r="D8" t="n">
-        <v>491.5454389937014</v>
+        <v>912.8176076703177</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1294.102365436318</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="O8" t="n">
-        <v>1697.183430080417</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1829.291861345744</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1828.476810797181</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1409.334347376492</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.7760549995292</v>
+        <v>1001.048223676145</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.5053801183834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>930.0072868842942</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>2362.477930088441</v>
       </c>
       <c r="U10" t="n">
-        <v>1430.117336733128</v>
+        <v>2084.044929341546</v>
       </c>
       <c r="V10" t="n">
-        <v>1143.161828603558</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W10" t="n">
-        <v>871.1354241898498</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>625.7436695232623</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.3239988373705</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1222.738694693851</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>784.5962218772743</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>784.5962218772743</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>784.5962218772743</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>356.728792286482</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>356.728792286482</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448084</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L11" t="n">
-        <v>2262.917935035995</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M11" t="n">
-        <v>2262.917935035995</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.917935035995</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869391</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3503.161559637918</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2881.322306888761</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2476.466852299794</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2057.324388879105</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1649.038265178759</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029136</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C12" t="n">
-        <v>475.8528970395559</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162085</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720784</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>3774.396776742189</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.493131408668</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.493131408668</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.493131408668</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.493131408668</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.493131408668</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.20459659609</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469414</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645759</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X12" t="n">
-        <v>830.099038503456</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826767</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.4156067153993</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C13" t="n">
-        <v>676.8538951986243</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D13" t="n">
-        <v>676.8538951986243</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>507.0958914493616</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>330.3888374111178</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2597.340010498583</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2351.460564077038</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2073.027563330143</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1786.072055200574</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1514.045650786866</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1268.653896120278</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1041.234225434386</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1662.819727026457</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1662.819727026457</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1226.909942200902</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>793.1351973591968</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2677677684046</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2262.917935035995</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>2262.917935035995</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869391</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581042</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581042</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3547.658357898059</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3185.041407831885</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2780.185953242919</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.04348982223</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1952.757366121883</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K15" t="n">
-        <v>1081.465657964014</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L15" t="n">
-        <v>1081.465657964014</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.465657964014</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.465657964014</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.465657964014</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964014</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1010.09307575615</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>837.531364239375</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>676.8538951986243</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>507.0958914493616</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>330.3888374111178</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.138033117789</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2512.138033117789</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U16" t="n">
-        <v>2233.705032370895</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V16" t="n">
-        <v>1946.749524241325</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W16" t="n">
-        <v>1674.723119827617</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X16" t="n">
-        <v>1429.331365161029</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1201.911694475137</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5501,10 +5503,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5516,13 +5518,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1035.728611060351</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>863.1668995435758</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>697.2889067450985</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>527.5309029958357</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>350.823848957592</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>185.2325739834196</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>185.2325739834196</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5704,19 +5706,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1454.96690046523</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1227.547229779338</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5756,46 +5758,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2612.634176317976</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2366.754729896431</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2088.321729149536</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1801.366221019967</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1529.339816606258</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1283.948061939671</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5977,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U23" t="n">
         <v>4550.100609912873</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1004.611946844417</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C25" t="n">
-        <v>832.0502353276421</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D25" t="n">
-        <v>666.1722425291648</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E25" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
         <v>496.4142387799021</v>
@@ -6187,10 +6189,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y25" t="n">
-        <v>1196.430565563404</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.9519976190925</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>743.3902861023174</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>577.5122933038401</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6397,37 +6399,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S28" t="n">
-        <v>2663.876401402276</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="T28" t="n">
-        <v>2417.996954980732</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U28" t="n">
-        <v>2139.563954233837</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1852.608446104267</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1580.582041690559</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1335.190287023971</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1107.77061633808</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1011.560997133398</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6655,16 +6657,16 @@
         <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1948.217445618573</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1676.191041204865</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1430.799286538277</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.379615852385</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1015.441008084184</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C34" t="n">
-        <v>842.8792965674086</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1680.07105215565</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X34" t="n">
-        <v>1434.679297489062</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1207.259626803171</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,22 +6946,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>693.7847748441449</v>
       </c>
       <c r="L36" t="n">
-        <v>1082.867562242341</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M36" t="n">
-        <v>1082.867562242341</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N36" t="n">
-        <v>1082.867562242341</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>1082.867562242341</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
         <v>1648.327823655249</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>845.969722159226</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>673.4080106424509</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>507.5300178439736</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439736</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V37" t="n">
-        <v>1782.626170644401</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W37" t="n">
-        <v>1510.599766230692</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1265.208011564105</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1037.788340878213</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7168,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7184,13 +7186,13 @@
         <v>3603.973621145286</v>
       </c>
       <c r="N38" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O38" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785924</v>
@@ -7199,13 +7201,13 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7269,10 +7271,10 @@
         <v>1336.088111831086</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7321,7 +7323,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7363,19 +7365,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2239.052964698928</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1952.097456569358</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1680.07105215565</v>
+        <v>1488.252433436663</v>
       </c>
       <c r="X40" t="n">
-        <v>1434.679297489062</v>
+        <v>1242.860678770075</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.259626803171</v>
+        <v>1015.441008084184</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C41" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771586</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004225</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162083</v>
+        <v>102.6776296436387</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.742592622717</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M41" t="n">
-        <v>1867.213757500781</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N41" t="n">
-        <v>2809.416720994589</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O41" t="n">
-        <v>2809.416720994589</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P41" t="n">
-        <v>3637.726595827985</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581041</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581041</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581041</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.880660581041</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>3444.263710514868</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W41" t="n">
-        <v>3039.408255925901</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X41" t="n">
-        <v>2928.659601704678</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2928.659601704678</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.17381292742472</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>400.7321378936371</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.195773823502</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>982.6340623067271</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>816.7560695082498</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>646.9980657589871</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>470.2910117207433</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2287.676407990873</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.243407243978</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>2009.243407243978</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1737.217002830269</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1574.434063228381</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1347.014392542489</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1702.028224503795</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.885751687218</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1194.533028735933</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162083</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162083</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>76.13761321162083</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L44" t="n">
-        <v>1018.340576705428</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M44" t="n">
-        <v>1960.543540199236</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N44" t="n">
-        <v>1960.543540199236</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035994</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.22780986939</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581041</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764878</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.228786764878</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>3723.228786764878</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>3360.611836698705</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
-        <v>2955.756382109738</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2536.613918689049</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2128.327794988702</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>400.7321378936371</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1010.09307575615</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C46" t="n">
-        <v>982.6340623067271</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D46" t="n">
-        <v>816.7560695082498</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>646.9980657589871</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>470.2910117207433</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>304.699736746571</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2512.138033117789</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2233.705032370895</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1946.749524241325</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1674.723119827617</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1429.331365161029</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1201.911694475137</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8055,16 +8057,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538401</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8140,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>310.5396916710388</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>624.8248713018638</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.7510985324818</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>275.492136110646</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,16 +8613,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>395.2263144949848</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8631,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L11" t="n">
-        <v>926.439739811392</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8766,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="K12" t="n">
         <v>687.6096162327044</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>926.439739811392</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9003,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>966.1036042908827</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,16 +9166,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>903.3699580700804</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,25 +9406,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>387.209503997221</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -9483,7 +9485,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10124,10 +10126,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,13 +10594,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>597.4989238114802</v>
       </c>
       <c r="L36" t="n">
         <v>964.1848977889938</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>571.1719812251592</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10832,16 +10834,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="O38" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>315.3936483072348</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>526.738550381883</v>
+        <v>288.7351832965051</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452604</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949887368</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452604</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452604</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>305.4286816532901</v>
+        <v>756.3484258820577</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11373,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682411</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.866207206234719</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>84.34995760698679</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>84.34995760698573</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>134.9983120755872</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3.146865729424462</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>5.148518520149366</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631333357557821</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>73.62918697961793</v>
       </c>
       <c r="T22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.1323395461472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>103.1553467313937</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.2197249473465</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>40.15930123557317</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>201.6494670918342</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>55.07653710780795</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>34.6746782719261</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>32.95267764171874</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>305.309871107471</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>81.78272691405223</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>362.8914912555276</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>143.6516710866786</v>
+        <v>135.0797604404447</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>544993.4436614371</v>
+        <v>561903.2068924709</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>544993.4436614371</v>
+        <v>564947.846953705</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480963.4881882077</v>
+        <v>594854.2507647312</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480963.4881882077</v>
+        <v>594854.2507647312</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594854.2507647313</v>
+        <v>594854.2507647312</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>594854.2507647312</v>
+        <v>594854.2507647311</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480963.4881882076</v>
+        <v>594854.2507647311</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480963.4881882076</v>
+        <v>594854.2507647312</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26322,16 @@
         <v>442321.538909587</v>
       </c>
       <c r="E2" t="n">
-        <v>351438.0042228206</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>351438.0042228205</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="G2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="I2" t="n">
         <v>434657.5069133156</v>
@@ -26344,16 +26346,16 @@
         <v>434657.5069133157</v>
       </c>
       <c r="M2" t="n">
+        <v>434657.5069133155</v>
+      </c>
+      <c r="N2" t="n">
         <v>434657.5069133156</v>
       </c>
-      <c r="N2" t="n">
-        <v>434657.5069133157</v>
-      </c>
       <c r="O2" t="n">
-        <v>351438.0042228205</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="P2" t="n">
-        <v>351438.0042228205</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501621</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998273</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.2949221039</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636919</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877255</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622278</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574194</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>187964.4997909369</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>87578.89003397716</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>87578.89003397716</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
         <v>108317.3178284629</v>
@@ -26454,10 +26456,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>87578.89003397716</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>87578.89003397714</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083183</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083183</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22480.18408008546</v>
+        <v>22480.18408008548</v>
       </c>
       <c r="C6" t="n">
-        <v>164671.4847397954</v>
+        <v>115813.0574156312</v>
       </c>
       <c r="D6" t="n">
-        <v>164671.4847397955</v>
+        <v>174065.4365245188</v>
       </c>
       <c r="E6" t="n">
-        <v>48517.23322590772</v>
+        <v>66266.84125801042</v>
       </c>
       <c r="F6" t="n">
-        <v>205994.5281480115</v>
+        <v>248621.9504790604</v>
       </c>
       <c r="G6" t="n">
-        <v>159122.141872691</v>
+        <v>248621.9504790602</v>
       </c>
       <c r="H6" t="n">
         <v>248621.9504790602</v>
@@ -26546,22 +26548,22 @@
         <v>137607.48513407</v>
       </c>
       <c r="K6" t="n">
+        <v>195576.0958402877</v>
+      </c>
+      <c r="L6" t="n">
+        <v>239229.648752438</v>
+      </c>
+      <c r="M6" t="n">
+        <v>96421.77954107238</v>
+      </c>
+      <c r="N6" t="n">
         <v>248621.9504790602</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>248621.9504790603</v>
       </c>
-      <c r="M6" t="n">
-        <v>117185.7033216407</v>
-      </c>
-      <c r="N6" t="n">
-        <v>248621.9504790603</v>
-      </c>
-      <c r="O6" t="n">
-        <v>205994.5281480115</v>
-      </c>
       <c r="P6" t="n">
-        <v>205994.5281480115</v>
+        <v>248621.9504790602</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452604</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452604</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939325</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394848</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939325</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939325</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394848</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>53.17333469697797</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>167.3588978269361</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>42.78558703927679</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>223.7899861621364</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27621,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>108.5867600896397</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>114.1982880799839</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>116.9384400862908</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.88493127946285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>83.94149472053135</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>117.7661826744368</v>
       </c>
       <c r="U10" t="n">
-        <v>190.1058364222741</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34775,16 +34777,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538401</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34860,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>310.5396916710388</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>624.8248713018638</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.7510985324818</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>275.492136110646</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>395.2263144949848</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L11" t="n">
-        <v>926.439739811392</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="K12" t="n">
         <v>687.6096162327044</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>926.439739811392</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>966.1036042908827</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35886,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>903.3699580700804</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>387.209503997221</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>-5.34688178647151e-13</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36765,7 +36767,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512906</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36832,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>-5.34688178647151e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37312,13 +37314,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>597.4989238114802</v>
       </c>
       <c r="L36" t="n">
         <v>964.1848977889938</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>571.1719812251592</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37552,16 +37554,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="O38" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>315.3936483072348</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>526.738550381883</v>
+        <v>288.7351832965051</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452604</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949887368</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452604</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452604</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>305.4286816532901</v>
+        <v>756.3484258820577</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682411</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1427374.110963021</v>
+        <v>1426848.928593988</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216496</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916863</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
+        <v>398.8303674489227</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>118.8799551842798</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>95.71756552725243</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>248.9879694692465</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>414.8948970882833</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>103.6682667757078</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -964,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>51.12198362547936</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>8.69988754878219</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1144,16 +1144,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>170.4850594777223</v>
       </c>
       <c r="V8" t="n">
-        <v>275.0492858449804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>125.6544692828925</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.5504749248104</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>111.5098183264943</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314298</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800139</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>186.7535668023728</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>41.28837002808749</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>67.65667327773704</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2058,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>157.8824880649885</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2089,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932887</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>145.6160698088844</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2250,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>84.01976803536537</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2374,7 +2374,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2484,13 +2484,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>23.92593778768311</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2532,7 +2532,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>73.71535300152969</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>24.62703520776628</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998282</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358933</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864818</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>179.0861311466703</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3483,10 +3483,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>249.4112747763479</v>
       </c>
       <c r="W37" t="n">
-        <v>234.6314620976453</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3723,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>236.3534627278526</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>102.6974459740354</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>187.4537730419678</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.0567773522572</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633428</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>35.75633396116267</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>140.2653052259355</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1072.077256853988</v>
+        <v>1208.492610164787</v>
       </c>
       <c r="C2" t="n">
-        <v>643.4955825912566</v>
+        <v>805.6336531456727</v>
       </c>
       <c r="D2" t="n">
-        <v>611.6262018061052</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>581.8918610048045</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>154.0244314140122</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>154.0244314140122</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1113.68420233872</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X2" t="n">
-        <v>1098.582142958435</v>
+        <v>1234.997496269233</v>
       </c>
       <c r="Y2" t="n">
-        <v>1094.336423298492</v>
+        <v>1230.75177660929</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>727.4857355149354</v>
+        <v>535.1709401235207</v>
       </c>
       <c r="C4" t="n">
-        <v>554.9240239981604</v>
+        <v>535.1709401235207</v>
       </c>
       <c r="D4" t="n">
-        <v>389.0460311996831</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2880274504203</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2880274504203</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>219.2880274504203</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>874.0494664914149</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4518,22 +4518,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>1418.750429333523</v>
+        <v>1199.800984194987</v>
       </c>
       <c r="W4" t="n">
-        <v>1146.724024919814</v>
+        <v>1199.800984194987</v>
       </c>
       <c r="X4" t="n">
-        <v>1146.724024919814</v>
+        <v>954.4092295283997</v>
       </c>
       <c r="Y4" t="n">
-        <v>919.3043542339226</v>
+        <v>726.9895588425079</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.990785889678</v>
+        <v>1367.397424416627</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.888717113505</v>
+        <v>929.2549516000504</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.97893228795</v>
+        <v>493.3451667744949</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.244591486649</v>
+        <v>74.25941213986528</v>
       </c>
       <c r="F5" t="n">
-        <v>741.3771618958569</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>50.8491759623371</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
@@ -4573,46 +4573,46 @@
         <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>1733.888642131953</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>1733.888642131953</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>1733.888642131953</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>2352.465264720798</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>2352.465264720798</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720798</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657692</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>2333.252034672129</v>
+        <v>2217.900228530729</v>
       </c>
       <c r="U5" t="n">
-        <v>2074.029731989146</v>
+        <v>2217.900228530729</v>
       </c>
       <c r="V5" t="n">
-        <v>1711.412781922972</v>
+        <v>2217.900228530729</v>
       </c>
       <c r="W5" t="n">
-        <v>1710.59773137441</v>
+        <v>2217.085177982166</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.495671994124</v>
+        <v>2201.983118601881</v>
       </c>
       <c r="Y5" t="n">
-        <v>1691.249952334182</v>
+        <v>1793.696994901535</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>76.4960597499347</v>
+        <v>76.49605974993467</v>
       </c>
       <c r="J6" t="n">
-        <v>76.4960597499347</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>431.6596472970916</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>431.6596472970916</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>431.6596472970916</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>431.6596472970916</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970916</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>871.4687364409342</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>698.9070249241591</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>533.0290321256819</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>481.3906648272178</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>304.6836107889741</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>139.0923358148018</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
         <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>684.507741074842</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255755</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.2504114134</v>
+        <v>1586.250411413398</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639181</v>
+        <v>2005.91966063918</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179227</v>
+        <v>2512.831564273064</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477223</v>
+        <v>2353.59019557106</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055679</v>
+        <v>2107.710749149515</v>
       </c>
       <c r="U7" t="n">
-        <v>2095.080693055679</v>
+        <v>2107.710749149515</v>
       </c>
       <c r="V7" t="n">
-        <v>1808.125184926109</v>
+        <v>1820.755241019946</v>
       </c>
       <c r="W7" t="n">
-        <v>1536.098780512401</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="X7" t="n">
-        <v>1290.707025845813</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>1063.287355159921</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>978.7890572316417</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C8" t="n">
-        <v>944.6869884554691</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>912.8176076703177</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4810,19 +4810,19 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>2471.176067606882</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>2471.176067606882</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4837,19 +4837,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2194.134594702725</v>
       </c>
       <c r="V8" t="n">
-        <v>1829.291861345744</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.476810797181</v>
+        <v>1426.662190047585</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.334347376492</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.048223676145</v>
+        <v>1003.274006966953</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4989,16 +4989,16 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2362.477930088441</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2084.044929341546</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1797.089421211977</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
         <v>1797.089421211977</v>
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5044,22 +5044,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
         <v>4943.887948785924</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>3774.396776742189</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>875.5388337745582</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>702.9771222577831</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>702.9771222577831</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>533.2191185085204</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F13" t="n">
-        <v>356.5120644702766</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G13" t="n">
         <v>190.9207894961043</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5284,10 +5284,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5311,19 +5311,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1368.816514500646</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.396843814754</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5518,13 +5518,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>1694.563362934248</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D19" t="n">
         <v>842.8792965674086</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2132.904553083697</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1845.949044954127</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>864.7097725347917</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C22" t="n">
-        <v>692.1480610180166</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D22" t="n">
-        <v>526.2700682195393</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E22" t="n">
-        <v>356.5120644702766</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2612.634176317976</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2366.754729896431</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2088.321729149536</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1801.366221019967</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1529.339816606258</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1283.948061939671</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.528391253779</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
         <v>4550.100609912873</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1035.728611060351</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C25" t="n">
-        <v>863.1668995435758</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D25" t="n">
-        <v>697.2889067450985</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
         <v>330.8229638057298</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X25" t="n">
-        <v>1454.96690046523</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y25" t="n">
-        <v>1227.547229779338</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6232,7 +6232,7 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M26" t="n">
         <v>2588.899621423627</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6399,37 +6399,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338901</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309243</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173576</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1021.77365348828</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2178.821488698831</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.552472135278</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O29" t="n">
-        <v>4284.732138705584</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6609,13 +6609,13 @@
         <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6688,28 +6688,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6745,7 +6745,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>949.5782250957668</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>777.0165135789917</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>611.1385207805145</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>441.3805170312517</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>264.6734629930079</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6946,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7019,22 +7019,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>693.7847748441449</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1648.327823655249</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1648.327823655249</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7131,7 +7131,7 @@
         <v>2281.246080724681</v>
       </c>
       <c r="V37" t="n">
-        <v>1994.290572595111</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
         <v>1757.289095728803</v>
@@ -7165,10 +7165,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,13 +7183,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1336.088111831086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.441008084184</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>842.8792965674086</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
         <v>842.8792965674086</v>
@@ -7323,7 +7323,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W40" t="n">
-        <v>1488.252433436663</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X40" t="n">
-        <v>1242.860678770075</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y40" t="n">
-        <v>1015.441008084184</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771586</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004225</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1177.320806523639</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987179</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7469,16 +7469,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903949</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7651,49 +7651,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7706,16 +7706,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.3368563937634</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C46" t="n">
-        <v>754.2193473420839</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F46" t="n">
         <v>407.7542895545774</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1554751127505</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
   </sheetData>
@@ -7978,11 +7978,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>310.5396916710388</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>624.8248713018638</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.7510985324818</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8379,13 +8379,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>275.492136110646</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982036</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8458,22 +8458,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>30.03100411261585</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8692,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8768,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>301.5463146682409</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>966.1036042908827</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>903.3699580700804</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>387.209503997221</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9880,10 +9880,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10667,25 +10667,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10831,16 +10831,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>801.4298400828725</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>433.7499898166689</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M41" t="n">
-        <v>288.7351832965051</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11299,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>756.3484258820577</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.34995760698679</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>52.42554389793627</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.146865729424462</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>201.6494670918342</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>96.56253959275548</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>44.28436272291287</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>73.62918697961793</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>144.134485924087</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>201.933317737896</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473465</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>69.71657238081424</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>96.56253959275537</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>34.67467827192598</v>
       </c>
       <c r="W37" t="n">
-        <v>34.6746782719261</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>32.95267764171874</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>122.4480280049974</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.446659489829472</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,13 +25836,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>135.0797604404447</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>561903.2068924709</v>
+        <v>561903.2068924708</v>
       </c>
     </row>
     <row r="4">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594854.2507647312</v>
+        <v>594854.2507647311</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>594854.2507647312</v>
+        <v>594854.2507647311</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>594854.2507647311</v>
+        <v>594854.2507647312</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>594854.2507647312</v>
+        <v>594854.2507647311</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>442321.5389095868</v>
       </c>
       <c r="C2" t="n">
+        <v>442321.5389095871</v>
+      </c>
+      <c r="D2" t="n">
         <v>442321.5389095869</v>
       </c>
-      <c r="D2" t="n">
-        <v>442321.538909587</v>
-      </c>
       <c r="E2" t="n">
+        <v>434657.5069133155</v>
+      </c>
+      <c r="F2" t="n">
+        <v>434657.5069133155</v>
+      </c>
+      <c r="G2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="H2" t="n">
+        <v>434657.5069133155</v>
+      </c>
+      <c r="I2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="J2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="K2" t="n">
         <v>434657.5069133156</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="M2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="N2" t="n">
         <v>434657.5069133157</v>
       </c>
-      <c r="G2" t="n">
-        <v>434657.5069133156</v>
-      </c>
-      <c r="H2" t="n">
-        <v>434657.5069133156</v>
-      </c>
-      <c r="I2" t="n">
-        <v>434657.5069133156</v>
-      </c>
-      <c r="J2" t="n">
-        <v>434657.5069133156</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>434657.5069133157</v>
-      </c>
-      <c r="L2" t="n">
-        <v>434657.5069133157</v>
-      </c>
-      <c r="M2" t="n">
-        <v>434657.5069133155</v>
-      </c>
-      <c r="N2" t="n">
-        <v>434657.5069133156</v>
-      </c>
-      <c r="O2" t="n">
-        <v>434657.5069133156</v>
       </c>
       <c r="P2" t="n">
         <v>434657.5069133156</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501621</v>
+        <v>66587.76789501614</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998273</v>
+        <v>11527.59554998281</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877255</v>
+        <v>53045.85463877254</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622278</v>
+        <v>9392.301726622285</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>187964.4997909369</v>
+        <v>187964.499790937</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
@@ -26472,13 +26472,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26493,25 +26493,25 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22480.18408008548</v>
+        <v>22480.1840800854</v>
       </c>
       <c r="C6" t="n">
-        <v>115813.0574156312</v>
+        <v>115813.0574156315</v>
       </c>
       <c r="D6" t="n">
         <v>174065.4365245188</v>
       </c>
       <c r="E6" t="n">
-        <v>66266.84125801042</v>
+        <v>66243.61691862774</v>
       </c>
       <c r="F6" t="n">
-        <v>248621.9504790604</v>
+        <v>248598.7261396774</v>
       </c>
       <c r="G6" t="n">
-        <v>248621.9504790602</v>
+        <v>248598.7261396776</v>
       </c>
       <c r="H6" t="n">
-        <v>248621.9504790602</v>
+        <v>248598.7261396774</v>
       </c>
       <c r="I6" t="n">
-        <v>248621.9504790602</v>
+        <v>248598.7261396776</v>
       </c>
       <c r="J6" t="n">
-        <v>137607.48513407</v>
+        <v>137584.2607946875</v>
       </c>
       <c r="K6" t="n">
-        <v>195576.0958402877</v>
+        <v>195552.871500905</v>
       </c>
       <c r="L6" t="n">
-        <v>239229.648752438</v>
+        <v>239206.4244130552</v>
       </c>
       <c r="M6" t="n">
-        <v>96421.77954107238</v>
+        <v>96398.55520168987</v>
       </c>
       <c r="N6" t="n">
-        <v>248621.9504790602</v>
+        <v>248598.7261396776</v>
       </c>
       <c r="O6" t="n">
-        <v>248621.9504790603</v>
+        <v>248598.7261396776</v>
       </c>
       <c r="P6" t="n">
-        <v>248621.9504790602</v>
+        <v>248598.7261396775</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483594</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939325</v>
+        <v>37.11037423939351</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483594</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939325</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483594</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939325</v>
+        <v>37.11037423939351</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>34.93068063948823</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>167.3588978269361</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>42.78558703927679</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>35.09798357902739</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.54210030500445</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>114.1982880799839</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>116.9384400862908</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.50375553289965</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27864,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>86.14502017843097</v>
       </c>
       <c r="V8" t="n">
-        <v>83.94149472053135</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>117.7661826744368</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34698,11 +34698,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>310.5396916710388</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>624.8248713018638</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35014,13 +35014,13 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.7510985324818</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>275.492136110646</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982036</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
@@ -35178,22 +35178,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>30.03100411261585</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35412,25 +35412,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>301.5463146682409</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35725,10 +35725,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>966.1036042908827</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>903.3699580700804</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>387.209503997221</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36600,10 +36600,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36767,7 +36767,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512906</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37551,16 +37551,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>801.4298400828725</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>433.7499898166689</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M41" t="n">
-        <v>288.7351832965051</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>756.3484258820577</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
